--- a/biology/Zoologie/Arbanitis_tannerae/Arbanitis_tannerae.xlsx
+++ b/biology/Zoologie/Arbanitis_tannerae/Arbanitis_tannerae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbanitis tannerae est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbanitis tannerae est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre vers Jamberoo[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre vers Jamberoo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 7,37 mm de long sur 6,02 mm et l'abdomen 8,04 mm de long sur 5,49 mm et la carapace de la femelle paratype mesure 11,56 mm de long sur 8,62 mm et l'abdomen 13,46 mm de long sur 9,49 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 7,37 mm de long sur 6,02 mm et l'abdomen 8,04 mm de long sur 5,49 mm et la carapace de la femelle paratype mesure 11,56 mm de long sur 8,62 mm et l'abdomen 13,46 mm de long sur 9,49 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Janice Tanner[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Janice Tanner.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wishart, 2011 : Trapdoor spiders of the genus Misgolas (Mygalomorphae: Idiopidae) in the Illawarra amd south coast regions of New South Wales, Australia. Records of the Australian Museum, vol. 63, no 1, p. 33-51 (texte intégral).</t>
         </is>
